--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8568836666666666</v>
+        <v>0.8785453333333333</v>
       </c>
       <c r="H2">
-        <v>2.570651</v>
+        <v>2.635636</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N2">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O2">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P2">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q2">
-        <v>1.635441025502777</v>
+        <v>3.743369797227555</v>
       </c>
       <c r="R2">
-        <v>14.718969229525</v>
+        <v>33.690328175048</v>
       </c>
       <c r="S2">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="T2">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8568836666666666</v>
+        <v>0.8785453333333333</v>
       </c>
       <c r="H3">
-        <v>2.570651</v>
+        <v>2.635636</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q3">
-        <v>17.587363310949</v>
+        <v>18.031964621964</v>
       </c>
       <c r="R3">
-        <v>158.286269798541</v>
+        <v>162.287681597676</v>
       </c>
       <c r="S3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="T3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8568836666666666</v>
+        <v>0.8785453333333333</v>
       </c>
       <c r="H4">
-        <v>2.570651</v>
+        <v>2.635636</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N4">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O4">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P4">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q4">
-        <v>7.471352062771333</v>
+        <v>7.846368026776888</v>
       </c>
       <c r="R4">
-        <v>67.24216856494201</v>
+        <v>70.61731224099199</v>
       </c>
       <c r="S4">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="T4">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8568836666666666</v>
+        <v>0.8785453333333333</v>
       </c>
       <c r="H5">
-        <v>2.570651</v>
+        <v>2.635636</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N5">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q5">
-        <v>17.955884126356</v>
+        <v>5.673623213336445</v>
       </c>
       <c r="R5">
-        <v>161.602957137204</v>
+        <v>51.062608920028</v>
       </c>
       <c r="S5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="T5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8568836666666666</v>
+        <v>0.8785453333333333</v>
       </c>
       <c r="H6">
-        <v>2.570651</v>
+        <v>2.635636</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N6">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O6">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P6">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q6">
-        <v>1.406858167327</v>
+        <v>1.711876331086666</v>
       </c>
       <c r="R6">
-        <v>12.661723505943</v>
+        <v>15.40688697978</v>
       </c>
       <c r="S6">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="T6">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8568836666666666</v>
+        <v>0.8785453333333333</v>
       </c>
       <c r="H7">
-        <v>2.570651</v>
+        <v>2.635636</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N7">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q7">
-        <v>10.18222864728667</v>
+        <v>4.288895493598222</v>
       </c>
       <c r="R7">
-        <v>91.64005782558</v>
+        <v>38.60005944238399</v>
       </c>
       <c r="S7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="T7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
     </row>
   </sheetData>
